--- a/bioSample/bioSample_J.PLAGGENBERG_09.10.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_09.10.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -117,16 +117,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,10 +197,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -220,7 +220,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,14 +228,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -267,16 +267,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
@@ -287,13 +287,13 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L2" s="6" t="n">
@@ -301,33 +301,33 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L3" s="6" t="n">
@@ -335,33 +335,33 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L4" s="6" t="n">
@@ -369,33 +369,33 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L5" s="6" t="n">
@@ -403,33 +403,33 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L6" s="6" t="n">
@@ -437,33 +437,33 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L7" s="6" t="n">
@@ -471,33 +471,33 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L8" s="6" t="n">
@@ -505,33 +505,33 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L9" s="6" t="n">
@@ -539,33 +539,33 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L10" s="6" t="n">
@@ -573,33 +573,33 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L11" s="6" t="n">
@@ -607,33 +607,33 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L12" s="6" t="n">
@@ -641,33 +641,33 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="L13" s="6" t="n">
@@ -675,33 +675,33 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L14" s="6" t="n">
@@ -709,33 +709,33 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L15" s="6" t="n">
@@ -743,33 +743,33 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L16" s="6" t="n">
@@ -777,33 +777,33 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="L17" s="6" t="n">
